--- a/data/trans_orig/CONS_TEN-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CONS_TEN-Edad-trans_orig.xlsx
@@ -775,12 +775,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -790,12 +790,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -888,12 +888,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>62149</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>62493</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -903,12 +903,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>99,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -1118,12 +1118,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1133,12 +1133,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1231,12 +1231,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>62157</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>62483</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1246,12 +1246,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>99,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -3727,12 +3727,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4766</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -3742,12 +3742,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -3840,12 +3840,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>231470</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -3855,12 +3855,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>97,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -6714,97 +6714,97 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>1196</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0,7%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>1207</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>0,71%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T4" s="2" t="inlineStr">
-        <is>
-          <t>1204</t>
-        </is>
-      </c>
-      <c r="U4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -6827,12 +6827,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>168975</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>170171</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -6842,12 +6842,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>99,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -6862,12 +6862,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>169235</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>170442</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -6877,12 +6877,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>99,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -6897,12 +6897,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>339409</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>340613</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -6912,12 +6912,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>99,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/CONS_TEN-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CONS_TEN-Edad-trans_orig.xlsx
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la tensión arterial en País Vasco</t>
+          <t>Consumo de medicamentos para la tensión arterial en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3532,7 +3532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la tensión arterial en Andalucia</t>
+          <t>Consumo de medicamentos para la tensión arterial en Andalucia (tasa de respuesta: 99,88%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6519,7 +6519,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la tensión arterial en C.Valenciana</t>
+          <t>Consumo de medicamentos para la tensión arterial en C.Valenciana (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/CONS_TEN-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CONS_TEN-Edad-trans_orig.xlsx
@@ -735,7 +735,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>546</t>
+          <t>469</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -745,12 +745,12 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1879</t>
+          <t>1553</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -805,7 +805,7 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>546</t>
+          <t>469</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
@@ -815,12 +815,12 @@
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>1889</t>
+          <t>1646</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>0,44%</t>
+          <t>0,33%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
@@ -830,7 +830,7 @@
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>1,15%</t>
         </is>
       </c>
     </row>
@@ -848,27 +848,27 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>62270</t>
+          <t>76412</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>60937</t>
+          <t>75328</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>62816</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>99,13%</t>
+          <t>99,39%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>97,01%</t>
+          <t>97,98%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>62493</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -918,27 +918,27 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>124763</t>
+          <t>142654</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>123420</t>
+          <t>141477</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>125309</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>99,56%</t>
+          <t>99,67%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>98,49%</t>
+          <t>98,85%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
@@ -961,17 +961,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>62816</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>62816</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>62816</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -996,17 +996,17 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>62493</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>62493</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>62493</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1031,17 +1031,17 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>125309</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>125309</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>125309</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1078,7 +1078,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>116</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -1088,12 +1088,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>597</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,19%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>116</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
@@ -1158,12 +1158,12 @@
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>813</t>
+          <t>684</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>0,1%</t>
+          <t>0,08%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>0,48%</t>
         </is>
       </c>
     </row>
@@ -1191,27 +1191,27 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>69034</t>
+          <t>74867</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>68512</t>
+          <t>74386</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>69165</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>99,81%</t>
+          <t>99,85%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>99,06%</t>
+          <t>99,2%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>62483</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1261,27 +1261,27 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>131516</t>
+          <t>142915</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>130834</t>
+          <t>142347</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>131647</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>99,9%</t>
+          <t>99,92%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>99,38%</t>
+          <t>99,52%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>69165</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>69165</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>69165</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1339,17 +1339,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>62483</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>62483</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>62483</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1374,17 +1374,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>131647</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>131647</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>131647</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1421,32 +1421,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1859</t>
+          <t>1463</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>891</t>
+          <t>724</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3549</t>
+          <t>2981</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,96%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,75%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1456,32 +1456,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1350</t>
+          <t>1070</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>422</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>2958</t>
+          <t>2233</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>3,03%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1491,32 +1491,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>3209</t>
+          <t>2533</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>1808</t>
+          <t>1476</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>5359</t>
+          <t>4299</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>0,69%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>2,0%</t>
         </is>
       </c>
     </row>
@@ -1534,32 +1534,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>92836</t>
+          <t>102497</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>91146</t>
+          <t>100979</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>93804</t>
+          <t>103236</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>98,04%</t>
+          <t>98,59%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>96,25%</t>
+          <t>97,13%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,06%</t>
+          <t>99,3%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1569,32 +1569,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>96155</t>
+          <t>109645</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>94547</t>
+          <t>108482</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>97022</t>
+          <t>110293</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>98,62%</t>
+          <t>99,03%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>96,97%</t>
+          <t>97,98%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>99,5%</t>
+          <t>99,62%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1604,32 +1604,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>188991</t>
+          <t>212142</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>186841</t>
+          <t>210376</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>190392</t>
+          <t>213199</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>98,33%</t>
+          <t>98,82%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>97,21%</t>
+          <t>98,0%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>99,06%</t>
+          <t>99,31%</t>
         </is>
       </c>
     </row>
@@ -1647,17 +1647,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>94695</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>94695</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>94695</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1682,17 +1682,17 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>97505</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>97505</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>97505</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1717,17 +1717,17 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>192200</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>192200</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>192200</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1764,32 +1764,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>13183</t>
+          <t>11160</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10429</t>
+          <t>8691</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>16488</t>
+          <t>14239</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>9,46%</t>
+          <t>7,71%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,48%</t>
+          <t>6,0%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>11,83%</t>
+          <t>9,83%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1799,32 +1799,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7595</t>
+          <t>9339</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5607</t>
+          <t>6840</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>9998</t>
+          <t>12467</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,5%</t>
+          <t>6,12%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>4,48%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>7,25%</t>
+          <t>8,17%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1834,32 +1834,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>20778</t>
+          <t>20500</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>17274</t>
+          <t>16834</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>25078</t>
+          <t>24641</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>7,49%</t>
+          <t>6,89%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>6,23%</t>
+          <t>5,66%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>9,04%</t>
+          <t>8,29%</t>
         </is>
       </c>
     </row>
@@ -1877,32 +1877,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>126231</t>
+          <t>133618</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>122926</t>
+          <t>130539</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>128985</t>
+          <t>136087</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>90,54%</t>
+          <t>92,29%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>88,17%</t>
+          <t>90,17%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>92,52%</t>
+          <t>94,0%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1912,32 +1912,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>130380</t>
+          <t>143205</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>127977</t>
+          <t>140077</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>132368</t>
+          <t>145704</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>94,5%</t>
+          <t>93,88%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>92,75%</t>
+          <t>91,83%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>95,94%</t>
+          <t>95,52%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1947,32 +1947,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>256612</t>
+          <t>276821</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>252312</t>
+          <t>272680</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>260116</t>
+          <t>280487</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>92,51%</t>
+          <t>93,11%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>90,96%</t>
+          <t>91,71%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>93,77%</t>
+          <t>94,34%</t>
         </is>
       </c>
     </row>
@@ -1990,17 +1990,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>139414</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>139414</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>139414</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2025,17 +2025,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>137975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>137975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>137975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2060,17 +2060,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>277390</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>277390</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>277390</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2107,32 +2107,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>35352</t>
+          <t>32522</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>30994</t>
+          <t>28098</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>40152</t>
+          <t>37182</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>27,87%</t>
+          <t>25,1%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>24,43%</t>
+          <t>21,68%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>31,65%</t>
+          <t>28,69%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2142,32 +2142,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>19985</t>
+          <t>21093</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>16423</t>
+          <t>17644</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>23549</t>
+          <t>25527</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>13,56%</t>
+          <t>13,88%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>11,15%</t>
+          <t>11,61%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>15,98%</t>
+          <t>16,8%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2177,32 +2177,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>55337</t>
+          <t>53615</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>49315</t>
+          <t>48352</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>61299</t>
+          <t>59576</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>20,18%</t>
+          <t>19,05%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>17,99%</t>
+          <t>17,18%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>22,36%</t>
+          <t>21,16%</t>
         </is>
       </c>
     </row>
@@ -2220,32 +2220,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>91502</t>
+          <t>97060</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>86702</t>
+          <t>92400</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>95860</t>
+          <t>101484</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>72,13%</t>
+          <t>74,9%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>68,35%</t>
+          <t>71,31%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>75,57%</t>
+          <t>78,32%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2255,32 +2255,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>127356</t>
+          <t>130822</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>123792</t>
+          <t>126388</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>130918</t>
+          <t>134271</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>86,44%</t>
+          <t>86,12%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>84,02%</t>
+          <t>83,2%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>88,85%</t>
+          <t>88,39%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2290,32 +2290,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>218857</t>
+          <t>227883</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>212895</t>
+          <t>221922</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>224879</t>
+          <t>233146</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>79,82%</t>
+          <t>80,95%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>77,64%</t>
+          <t>78,84%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>82,01%</t>
+          <t>82,82%</t>
         </is>
       </c>
     </row>
@@ -2333,17 +2333,17 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>126854</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>126854</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>126854</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2368,17 +2368,17 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>147341</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>147341</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>147341</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2403,17 +2403,17 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>274194</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>274194</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>274194</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2450,32 +2450,32 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>40938</t>
+          <t>41036</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>36728</t>
+          <t>37133</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>45784</t>
+          <t>45827</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>38,04%</t>
+          <t>39,28%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>34,13%</t>
+          <t>35,55%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>42,55%</t>
+          <t>43,87%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2485,32 +2485,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>35612</t>
+          <t>34628</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>31415</t>
+          <t>30353</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>39802</t>
+          <t>38981</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>30,99%</t>
+          <t>29,91%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>27,34%</t>
+          <t>26,22%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>34,64%</t>
+          <t>33,67%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2520,32 +2520,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>76550</t>
+          <t>75664</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>70680</t>
+          <t>69547</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>83261</t>
+          <t>81295</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>34,4%</t>
+          <t>34,35%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>31,76%</t>
+          <t>31,58%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>37,42%</t>
+          <t>36,91%</t>
         </is>
       </c>
     </row>
@@ -2563,32 +2563,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>66666</t>
+          <t>63430</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>61820</t>
+          <t>58639</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>70876</t>
+          <t>67333</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>61,96%</t>
+          <t>60,72%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>57,45%</t>
+          <t>56,13%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>65,87%</t>
+          <t>64,45%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2598,32 +2598,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>79296</t>
+          <t>81152</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>75106</t>
+          <t>76799</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>83493</t>
+          <t>85427</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>69,01%</t>
+          <t>70,09%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>65,36%</t>
+          <t>66,33%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>72,66%</t>
+          <t>73,78%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2633,32 +2633,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>145962</t>
+          <t>144582</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>139251</t>
+          <t>138951</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>151832</t>
+          <t>150699</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>65,6%</t>
+          <t>65,65%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>62,58%</t>
+          <t>63,09%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>68,24%</t>
+          <t>68,42%</t>
         </is>
       </c>
     </row>
@@ -2676,17 +2676,17 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>107604</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>107604</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>107604</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2711,17 +2711,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>114908</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>114908</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>114908</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2746,17 +2746,17 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>222512</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>222512</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>222512</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2793,32 +2793,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>54732</t>
+          <t>50484</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>50243</t>
+          <t>46624</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>58954</t>
+          <t>54363</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>56,8%</t>
+          <t>56,58%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>52,14%</t>
+          <t>52,26%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>61,18%</t>
+          <t>60,93%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2828,32 +2828,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>70442</t>
+          <t>67629</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>65792</t>
+          <t>62607</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>76110</t>
+          <t>72577</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>52,6%</t>
+          <t>51,11%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>49,12%</t>
+          <t>47,32%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>56,83%</t>
+          <t>54,85%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2863,32 +2863,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>125175</t>
+          <t>118114</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>118762</t>
+          <t>112032</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>132160</t>
+          <t>124665</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>54,36%</t>
+          <t>53,32%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>51,57%</t>
+          <t>50,57%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>57,39%</t>
+          <t>56,27%</t>
         </is>
       </c>
     </row>
@@ -2906,32 +2906,32 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>41623</t>
+          <t>38739</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>37401</t>
+          <t>34860</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>46112</t>
+          <t>42599</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>43,2%</t>
+          <t>43,42%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>38,82%</t>
+          <t>39,07%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>47,86%</t>
+          <t>47,74%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2941,32 +2941,32 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>63489</t>
+          <t>64683</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>57821</t>
+          <t>59735</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>68139</t>
+          <t>69705</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>47,4%</t>
+          <t>48,89%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>43,17%</t>
+          <t>45,15%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>50,88%</t>
+          <t>52,68%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -2976,32 +2976,32 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>105111</t>
+          <t>103421</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>98126</t>
+          <t>96870</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>111524</t>
+          <t>109503</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>45,64%</t>
+          <t>46,68%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>42,61%</t>
+          <t>43,73%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>48,43%</t>
+          <t>49,43%</t>
         </is>
       </c>
     </row>
@@ -3019,17 +3019,17 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>96355</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>96355</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>96355</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3054,17 +3054,17 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>133931</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>133931</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>133931</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3089,17 +3089,17 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>230286</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>230286</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>230286</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3136,32 +3136,32 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>146740</t>
+          <t>137250</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>137498</t>
+          <t>128385</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>156796</t>
+          <t>146037</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>21,06%</t>
+          <t>18,96%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>19,73%</t>
+          <t>17,74%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>22,5%</t>
+          <t>20,17%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3171,32 +3171,32 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>134984</t>
+          <t>133760</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>126077</t>
+          <t>125013</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>144606</t>
+          <t>143100</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>17,84%</t>
+          <t>16,77%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>16,66%</t>
+          <t>15,67%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>19,11%</t>
+          <t>17,94%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3206,32 +3206,32 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>281725</t>
+          <t>271010</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>269027</t>
+          <t>257153</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>295664</t>
+          <t>283435</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>19,38%</t>
+          <t>17,81%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>18,51%</t>
+          <t>16,9%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>20,34%</t>
+          <t>18,63%</t>
         </is>
       </c>
     </row>
@@ -3249,32 +3249,32 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>550163</t>
+          <t>586622</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>540107</t>
+          <t>577835</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>559405</t>
+          <t>595487</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>78,94%</t>
+          <t>81,04%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>77,5%</t>
+          <t>79,83%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>80,27%</t>
+          <t>82,26%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3284,32 +3284,32 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>621651</t>
+          <t>663796</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>612029</t>
+          <t>654456</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>630558</t>
+          <t>672543</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>82,16%</t>
+          <t>83,23%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>80,89%</t>
+          <t>82,06%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>83,34%</t>
+          <t>84,33%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3319,32 +3319,32 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>1171813</t>
+          <t>1250419</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>1157874</t>
+          <t>1237994</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>1184511</t>
+          <t>1264276</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>80,62%</t>
+          <t>82,19%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>79,66%</t>
+          <t>81,37%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>81,49%</t>
+          <t>83,1%</t>
         </is>
       </c>
     </row>
@@ -3362,17 +3362,17 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>696903</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>696903</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>696903</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3397,17 +3397,17 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>756635</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>756635</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>756635</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3432,17 +3432,17 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>1453538</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>1453538</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>1453538</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3767,7 +3767,7 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>8785</t>
+          <t>7411</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -3782,7 +3782,7 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -3802,7 +3802,7 @@
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>8885</t>
+          <t>7981</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>1,9%</t>
         </is>
       </c>
     </row>
@@ -3875,7 +3875,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>175568</t>
+          <t>176942</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -3890,7 +3890,7 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>95,23%</t>
+          <t>95,98%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
@@ -3910,7 +3910,7 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>411704</t>
+          <t>412608</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
@@ -3925,7 +3925,7 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>97,89%</t>
+          <t>98,1%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
@@ -4075,7 +4075,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4579</t>
+          <t>5411</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -4090,7 +4090,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -4105,12 +4105,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>540</t>
+          <t>145</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>9071</t>
+          <t>8376</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -4120,12 +4120,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0,17%</t>
+          <t>0,05%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>2,88%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -4140,12 +4140,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>894</t>
+          <t>974</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>9823</t>
+          <t>9929</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -4155,12 +4155,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>0,18%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>1,83%</t>
         </is>
       </c>
     </row>
@@ -4183,7 +4183,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>224789</t>
+          <t>223957</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -4198,7 +4198,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>98,0%</t>
+          <t>97,64%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -4218,12 +4218,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>305357</t>
+          <t>306052</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>313888</t>
+          <t>314283</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -4233,12 +4233,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>97,12%</t>
+          <t>97,34%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>99,83%</t>
+          <t>99,95%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -4253,12 +4253,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>533973</t>
+          <t>533867</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>542902</t>
+          <t>542822</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -4268,12 +4268,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>98,19%</t>
+          <t>98,17%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>99,84%</t>
+          <t>99,82%</t>
         </is>
       </c>
     </row>
@@ -4413,12 +4413,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8554</t>
+          <t>8790</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>25454</t>
+          <t>26245</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -4428,12 +4428,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,75%</t>
+          <t>2,83%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>8,19%</t>
+          <t>8,45%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -4448,12 +4448,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>4285</t>
+          <t>4367</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>13344</t>
+          <t>13798</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -4463,12 +4463,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>1,35%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>4,14%</t>
+          <t>4,28%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -4483,12 +4483,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>16253</t>
+          <t>15165</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>35912</t>
+          <t>34203</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -4498,12 +4498,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>2,57%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>5,67%</t>
+          <t>5,4%</t>
         </is>
       </c>
     </row>
@@ -4526,12 +4526,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>285315</t>
+          <t>284524</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>302215</t>
+          <t>301979</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -4541,12 +4541,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>91,81%</t>
+          <t>91,55%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>97,25%</t>
+          <t>97,17%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -4561,12 +4561,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>309269</t>
+          <t>308815</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>318328</t>
+          <t>318246</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -4576,12 +4576,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>95,86%</t>
+          <t>95,72%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>98,67%</t>
+          <t>98,65%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -4596,12 +4596,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>597469</t>
+          <t>599178</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>617128</t>
+          <t>618216</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -4611,12 +4611,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>94,33%</t>
+          <t>94,6%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>97,43%</t>
+          <t>97,61%</t>
         </is>
       </c>
     </row>
@@ -4756,12 +4756,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14189</t>
+          <t>17563</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>85093</t>
+          <t>83699</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -4771,12 +4771,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,26%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>13,57%</t>
+          <t>13,35%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -4791,12 +4791,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>42624</t>
+          <t>42528</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>69907</t>
+          <t>73296</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -4806,12 +4806,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>10,53%</t>
+          <t>10,51%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>17,27%</t>
+          <t>18,11%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -4826,12 +4826,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>51662</t>
+          <t>47841</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>137701</t>
+          <t>139822</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -4841,12 +4841,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>5,01%</t>
+          <t>4,64%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>13,34%</t>
+          <t>13,55%</t>
         </is>
       </c>
     </row>
@@ -4869,12 +4869,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>542071</t>
+          <t>543465</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>612975</t>
+          <t>609601</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -4884,12 +4884,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>86,43%</t>
+          <t>86,65%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>97,74%</t>
+          <t>97,2%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -4904,12 +4904,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>334895</t>
+          <t>331506</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>362178</t>
+          <t>362274</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -4919,12 +4919,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>82,73%</t>
+          <t>81,89%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>89,47%</t>
+          <t>89,49%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -4939,12 +4939,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>894265</t>
+          <t>892144</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>980304</t>
+          <t>984125</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -4954,12 +4954,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>86,66%</t>
+          <t>86,45%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>94,99%</t>
+          <t>95,36%</t>
         </is>
       </c>
     </row>
@@ -5099,12 +5099,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>82434</t>
+          <t>83768</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>114103</t>
+          <t>114630</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -5114,12 +5114,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>24,31%</t>
+          <t>24,7%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>33,65%</t>
+          <t>33,8%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -5134,12 +5134,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>66371</t>
+          <t>65605</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>88936</t>
+          <t>88042</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -5149,12 +5149,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>20,81%</t>
+          <t>20,57%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>27,89%</t>
+          <t>27,61%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -5169,12 +5169,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>155625</t>
+          <t>157363</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>194882</t>
+          <t>195911</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -5184,12 +5184,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>23,65%</t>
+          <t>23,91%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>29,62%</t>
+          <t>29,77%</t>
         </is>
       </c>
     </row>
@@ -5212,12 +5212,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>225026</t>
+          <t>224499</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>256695</t>
+          <t>255361</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -5227,12 +5227,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>66,35%</t>
+          <t>66,2%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>75,69%</t>
+          <t>75,3%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -5247,12 +5247,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>229958</t>
+          <t>230852</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>252523</t>
+          <t>253289</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -5262,12 +5262,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>72,11%</t>
+          <t>72,39%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>79,19%</t>
+          <t>79,43%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -5282,12 +5282,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>463142</t>
+          <t>462113</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>502399</t>
+          <t>500661</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -5297,12 +5297,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>70,38%</t>
+          <t>70,23%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>76,35%</t>
+          <t>76,09%</t>
         </is>
       </c>
     </row>
@@ -5442,12 +5442,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>85880</t>
+          <t>86525</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>109315</t>
+          <t>109823</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -5457,12 +5457,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>41,45%</t>
+          <t>41,76%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>52,76%</t>
+          <t>53,0%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -5477,12 +5477,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>193549</t>
+          <t>193359</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>405014</t>
+          <t>414846</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -5492,12 +5492,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>42,76%</t>
+          <t>42,72%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>89,48%</t>
+          <t>91,65%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -5512,12 +5512,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>293376</t>
+          <t>291641</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>542395</t>
+          <t>561683</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -5527,12 +5527,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>44,46%</t>
+          <t>44,2%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>82,2%</t>
+          <t>85,12%</t>
         </is>
       </c>
     </row>
@@ -5555,12 +5555,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>97886</t>
+          <t>97378</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>121321</t>
+          <t>120676</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -5570,12 +5570,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>47,24%</t>
+          <t>47,0%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>58,55%</t>
+          <t>58,24%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -5590,12 +5590,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>47628</t>
+          <t>37796</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>259093</t>
+          <t>259283</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -5605,12 +5605,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>10,52%</t>
+          <t>8,35%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>57,24%</t>
+          <t>57,28%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -5625,12 +5625,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>117448</t>
+          <t>98160</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>366467</t>
+          <t>368202</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -5640,12 +5640,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>17,8%</t>
+          <t>14,88%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>55,54%</t>
+          <t>55,8%</t>
         </is>
       </c>
     </row>
@@ -5785,12 +5785,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>74788</t>
+          <t>74301</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>94451</t>
+          <t>93614</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -5800,12 +5800,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>49,28%</t>
+          <t>48,95%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>62,23%</t>
+          <t>61,68%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -5820,12 +5820,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>129513</t>
+          <t>129258</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>150856</t>
+          <t>149793</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -5835,12 +5835,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>55,44%</t>
+          <t>55,33%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>64,58%</t>
+          <t>64,12%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -5855,12 +5855,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>209108</t>
+          <t>209945</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>239074</t>
+          <t>239899</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -5870,12 +5870,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>54,26%</t>
+          <t>54,48%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>62,04%</t>
+          <t>62,25%</t>
         </is>
       </c>
     </row>
@@ -5898,12 +5898,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>57324</t>
+          <t>58161</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>76987</t>
+          <t>77474</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -5913,12 +5913,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>37,77%</t>
+          <t>38,32%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>50,72%</t>
+          <t>51,05%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -5933,12 +5933,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>82748</t>
+          <t>83811</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>104091</t>
+          <t>104346</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -5948,12 +5948,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>35,42%</t>
+          <t>35,88%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>44,56%</t>
+          <t>44,67%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -5968,12 +5968,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>146305</t>
+          <t>145480</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>176271</t>
+          <t>175434</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -5983,12 +5983,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>37,96%</t>
+          <t>37,75%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>45,74%</t>
+          <t>45,52%</t>
         </is>
       </c>
     </row>
@@ -6128,12 +6128,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>207346</t>
+          <t>219925</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>402361</t>
+          <t>403647</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -6143,12 +6143,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>9,87%</t>
+          <t>10,46%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>19,15%</t>
+          <t>19,21%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -6163,12 +6163,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>418123</t>
+          <t>416876</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>1037618</t>
+          <t>1119986</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -6178,12 +6178,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>18,74%</t>
+          <t>18,68%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>46,5%</t>
+          <t>50,19%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -6198,12 +6198,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>736131</t>
+          <t>737189</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>1430080</t>
+          <t>1441057</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -6213,12 +6213,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>16,99%</t>
+          <t>17,01%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>33,0%</t>
+          <t>33,26%</t>
         </is>
       </c>
     </row>
@@ -6241,12 +6241,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>1699280</t>
+          <t>1697994</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>1894295</t>
+          <t>1881716</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -6256,12 +6256,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>80,85%</t>
+          <t>80,79%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>90,13%</t>
+          <t>89,54%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -6276,12 +6276,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>1193718</t>
+          <t>1111350</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>1813213</t>
+          <t>1814460</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -6291,12 +6291,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>53,5%</t>
+          <t>49,81%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>81,26%</t>
+          <t>81,32%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -6311,12 +6311,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>2902897</t>
+          <t>2891920</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>3596846</t>
+          <t>3595788</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -6326,12 +6326,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>67,0%</t>
+          <t>66,74%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>83,01%</t>
+          <t>82,99%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/CONS_TEN-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CONS_TEN-Edad-trans_orig.xlsx
@@ -7,9 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la tensión arterial en País Vasco (tasa de respuesta: 99,45%)</t>
+          <t>Consumo de medicamentos para la tensión arterial en Andalucia (tasa de respuesta: 99,88%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -730,107 +730,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>469</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>2032</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>1553</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,61%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>9255</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,93%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>2,02%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>4,21%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>2032</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>10171</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>0,44%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>469</t>
-        </is>
-      </c>
-      <c r="S4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T4" s="2" t="inlineStr">
-        <is>
-          <t>1646</t>
-        </is>
-      </c>
-      <c r="U4" s="2" t="inlineStr">
-        <is>
-          <t>0,33%</t>
-        </is>
-      </c>
-      <c r="V4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>1,15%</t>
+          <t>2,21%</t>
         </is>
       </c>
     </row>
@@ -843,102 +843,102 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>76412</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>75328</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>76881</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>99,39%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>97,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>217623</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>210400</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>219655</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>99,07%</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>95,79%</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
           <t>100,0%</t>
         </is>
       </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>348</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>66242</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
-      <c r="O5" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>722</t>
+          <t>211</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>142654</t>
+          <t>458888</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>141477</t>
+          <t>450749</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>143123</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>99,67%</t>
+          <t>99,56%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>98,85%</t>
+          <t>97,79%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
@@ -956,22 +956,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>94</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>76881</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>76881</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>76881</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -991,22 +991,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>118</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>66242</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>66242</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>66242</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1026,22 +1026,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>724</t>
+          <t>212</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>143123</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>143123</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>143123</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1078,7 +1078,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>1025</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -1088,12 +1088,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>6017</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,15%</t>
+          <t>0,39%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -1103,77 +1103,77 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2923</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>718</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>7804</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,25%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,75%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>3947</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1034</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>684</t>
+          <t>9216</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>0,08%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,19%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>0,48%</t>
+          <t>1,69%</t>
         </is>
       </c>
     </row>
@@ -1186,32 +1186,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>152</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>74867</t>
+          <t>260949</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>74386</t>
+          <t>255957</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>74983</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>99,85%</t>
+          <t>99,61%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>99,2%</t>
+          <t>97,7%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -1221,72 +1221,72 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>246</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>68048</t>
+          <t>280530</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>275649</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>282735</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>98,97%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>97,25%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>99,75%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>763</t>
+          <t>398</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>142915</t>
+          <t>541479</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>142347</t>
+          <t>536210</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>143031</t>
+          <t>544392</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>99,92%</t>
+          <t>99,28%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>99,52%</t>
+          <t>98,31%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>99,81%</t>
         </is>
       </c>
     </row>
@@ -1299,22 +1299,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>74983</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>74983</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>74983</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1334,22 +1334,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>249</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>68048</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>68048</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>68048</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1369,22 +1369,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>764</t>
+          <t>402</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>143031</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>143031</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>143031</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1416,107 +1416,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1463</t>
+          <t>19587</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>724</t>
+          <t>11542</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2981</t>
+          <t>31471</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>8,54%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1070</t>
+          <t>9635</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>5178</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>2233</t>
+          <t>15541</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>0,38%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>30</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>2533</t>
+          <t>29222</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>1476</t>
+          <t>19425</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>4299</t>
+          <t>41004</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>1,18%</t>
+          <t>3,94%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>5,53%</t>
         </is>
       </c>
     </row>
@@ -1529,107 +1529,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>297</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>102497</t>
+          <t>348731</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>100979</t>
+          <t>336847</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>103236</t>
+          <t>356776</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>98,59%</t>
+          <t>94,68%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>97,13%</t>
+          <t>91,46%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,3%</t>
+          <t>96,87%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>479</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>109645</t>
+          <t>363750</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>108482</t>
+          <t>357844</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>110293</t>
+          <t>368207</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>99,03%</t>
+          <t>97,42%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>97,98%</t>
+          <t>95,84%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>99,62%</t>
+          <t>98,61%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1133</t>
+          <t>776</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>212142</t>
+          <t>712481</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>210376</t>
+          <t>700699</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>213199</t>
+          <t>722278</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>98,82%</t>
+          <t>96,06%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>98,0%</t>
+          <t>94,47%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>99,31%</t>
+          <t>97,38%</t>
         </is>
       </c>
     </row>
@@ -1642,22 +1642,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>568</t>
+          <t>313</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>103960</t>
+          <t>368318</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>103960</t>
+          <t>368318</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>103960</t>
+          <t>368318</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1677,22 +1677,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>493</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>110715</t>
+          <t>373385</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>110715</t>
+          <t>373385</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>110715</t>
+          <t>373385</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1712,22 +1712,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1148</t>
+          <t>806</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>214675</t>
+          <t>741703</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>214675</t>
+          <t>741703</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>214675</t>
+          <t>741703</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1759,107 +1759,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11160</t>
+          <t>49234</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8691</t>
+          <t>36884</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>14239</t>
+          <t>64057</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,71%</t>
+          <t>11,61%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,0%</t>
+          <t>8,7%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,83%</t>
+          <t>15,11%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>83</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>9339</t>
+          <t>54478</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>6840</t>
+          <t>45173</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>12467</t>
+          <t>67669</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,12%</t>
+          <t>12,35%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>4,48%</t>
+          <t>10,24%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>8,17%</t>
+          <t>15,33%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>130</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>20500</t>
+          <t>103712</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>16834</t>
+          <t>87532</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>24641</t>
+          <t>123832</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>6,89%</t>
+          <t>11,99%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>5,66%</t>
+          <t>10,12%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>8,29%</t>
+          <t>14,31%</t>
         </is>
       </c>
     </row>
@@ -1872,107 +1872,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>733</t>
+          <t>343</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>133618</t>
+          <t>374707</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>130539</t>
+          <t>359884</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>136087</t>
+          <t>387057</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>92,29%</t>
+          <t>88,39%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>90,17%</t>
+          <t>84,89%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>94,0%</t>
+          <t>91,3%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>763</t>
+          <t>577</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>143205</t>
+          <t>386814</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>140077</t>
+          <t>373623</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>145704</t>
+          <t>396119</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>93,88%</t>
+          <t>87,65%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>91,83%</t>
+          <t>84,67%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>95,52%</t>
+          <t>89,76%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1496</t>
+          <t>920</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>276821</t>
+          <t>761522</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>272680</t>
+          <t>741402</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>280487</t>
+          <t>777702</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>93,11%</t>
+          <t>88,01%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>91,71%</t>
+          <t>85,69%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>94,34%</t>
+          <t>89,88%</t>
         </is>
       </c>
     </row>
@@ -1985,22 +1985,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>803</t>
+          <t>390</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>144778</t>
+          <t>423941</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>144778</t>
+          <t>423941</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>144778</t>
+          <t>423941</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2020,22 +2020,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>812</t>
+          <t>660</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>152544</t>
+          <t>441292</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>152544</t>
+          <t>441292</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>152544</t>
+          <t>441292</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2055,22 +2055,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1615</t>
+          <t>1050</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>297321</t>
+          <t>865234</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>297321</t>
+          <t>865234</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>297321</t>
+          <t>865234</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2102,107 +2102,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>115</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>32522</t>
+          <t>103181</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>28098</t>
+          <t>87594</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>37182</t>
+          <t>120209</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>25,1%</t>
+          <t>28,04%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>21,68%</t>
+          <t>23,8%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>28,69%</t>
+          <t>32,66%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>143</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>21093</t>
+          <t>90428</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>17644</t>
+          <t>77440</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>25527</t>
+          <t>102915</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>13,88%</t>
+          <t>25,09%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>11,61%</t>
+          <t>21,49%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>16,8%</t>
+          <t>28,56%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>258</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>53615</t>
+          <t>193610</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>48352</t>
+          <t>174760</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>59576</t>
+          <t>215805</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>19,05%</t>
+          <t>26,58%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>17,18%</t>
+          <t>23,99%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>21,16%</t>
+          <t>29,63%</t>
         </is>
       </c>
     </row>
@@ -2215,107 +2215,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>540</t>
+          <t>283</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>97060</t>
+          <t>264862</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>92400</t>
+          <t>247834</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>101484</t>
+          <t>280449</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>74,9%</t>
+          <t>71,96%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>71,31%</t>
+          <t>67,34%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>78,32%</t>
+          <t>76,2%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>739</t>
+          <t>423</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>130822</t>
+          <t>269938</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>126388</t>
+          <t>257451</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>134271</t>
+          <t>282926</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>86,12%</t>
+          <t>74,91%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>83,2%</t>
+          <t>71,44%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>88,39%</t>
+          <t>78,51%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>1279</t>
+          <t>706</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>227883</t>
+          <t>534798</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>221922</t>
+          <t>512603</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>233146</t>
+          <t>553648</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>80,95%</t>
+          <t>73,42%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>78,84%</t>
+          <t>70,37%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>82,82%</t>
+          <t>76,01%</t>
         </is>
       </c>
     </row>
@@ -2328,22 +2328,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>733</t>
+          <t>398</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>129582</t>
+          <t>368043</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>129582</t>
+          <t>368043</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>129582</t>
+          <t>368043</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2363,22 +2363,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>859</t>
+          <t>566</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>151915</t>
+          <t>360366</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>151915</t>
+          <t>360366</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>151915</t>
+          <t>360366</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2398,22 +2398,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>1592</t>
+          <t>964</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>281498</t>
+          <t>728408</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>281498</t>
+          <t>728408</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>281498</t>
+          <t>728408</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2445,107 +2445,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>149</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>41036</t>
+          <t>106431</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>37133</t>
+          <t>92700</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>45827</t>
+          <t>118800</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>39,28%</t>
+          <t>46,2%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>35,55%</t>
+          <t>40,24%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>43,87%</t>
+          <t>51,57%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>216</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>34628</t>
+          <t>121513</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>30353</t>
+          <t>108960</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>38981</t>
+          <t>132563</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>29,91%</t>
+          <t>45,0%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>26,22%</t>
+          <t>40,35%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>33,67%</t>
+          <t>49,09%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>365</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>75664</t>
+          <t>227943</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>69547</t>
+          <t>210686</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>81295</t>
+          <t>245577</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>34,35%</t>
+          <t>45,55%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>31,58%</t>
+          <t>42,11%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>36,91%</t>
+          <t>49,08%</t>
         </is>
       </c>
     </row>
@@ -2558,107 +2558,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>167</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>63430</t>
+          <t>123920</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>58639</t>
+          <t>111551</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>67333</t>
+          <t>137651</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>60,72%</t>
+          <t>53,8%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>56,13%</t>
+          <t>48,43%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>64,45%</t>
+          <t>59,76%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>488</t>
+          <t>266</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>81152</t>
+          <t>148519</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>76799</t>
+          <t>137469</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>85427</t>
+          <t>161072</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>70,09%</t>
+          <t>55,0%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>66,33%</t>
+          <t>50,91%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>73,78%</t>
+          <t>59,65%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>886</t>
+          <t>433</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>144582</t>
+          <t>272439</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>138951</t>
+          <t>254805</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>150699</t>
+          <t>289696</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>65,65%</t>
+          <t>54,45%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>63,09%</t>
+          <t>50,92%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>68,42%</t>
+          <t>57,89%</t>
         </is>
       </c>
     </row>
@@ -2671,22 +2671,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>646</t>
+          <t>316</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>104466</t>
+          <t>230351</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>104466</t>
+          <t>230351</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>104466</t>
+          <t>230351</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2706,22 +2706,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>703</t>
+          <t>482</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>115780</t>
+          <t>270032</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>115780</t>
+          <t>270032</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>115780</t>
+          <t>270032</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2741,22 +2741,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>1349</t>
+          <t>798</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>220246</t>
+          <t>500382</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>220246</t>
+          <t>500382</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>220246</t>
+          <t>500382</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2788,107 +2788,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>132</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>50484</t>
+          <t>92537</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>46624</t>
+          <t>81452</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>54363</t>
+          <t>102664</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>56,58%</t>
+          <t>55,89%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>52,26%</t>
+          <t>49,19%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>60,93%</t>
+          <t>62,0%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>266</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>67629</t>
+          <t>153456</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>62607</t>
+          <t>141346</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>72577</t>
+          <t>164526</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>51,11%</t>
+          <t>59,8%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>47,32%</t>
+          <t>55,08%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>54,85%</t>
+          <t>64,12%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>728</t>
+          <t>398</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>118114</t>
+          <t>245993</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>112032</t>
+          <t>230246</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>124665</t>
+          <t>263625</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>53,32%</t>
+          <t>58,27%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>50,57%</t>
+          <t>54,54%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>56,27%</t>
+          <t>62,44%</t>
         </is>
       </c>
     </row>
@@ -2901,107 +2901,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>99</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>38739</t>
+          <t>73044</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>34860</t>
+          <t>62917</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>42599</t>
+          <t>84129</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>43,42%</t>
+          <t>44,11%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>39,07%</t>
+          <t>38,0%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>47,74%</t>
+          <t>50,81%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>175</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>64683</t>
+          <t>103151</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>59735</t>
+          <t>92081</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>69705</t>
+          <t>115261</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>48,89%</t>
+          <t>40,2%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>45,15%</t>
+          <t>35,88%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>52,68%</t>
+          <t>44,92%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>274</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>103421</t>
+          <t>176195</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>96870</t>
+          <t>158563</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>109503</t>
+          <t>191942</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>46,68%</t>
+          <t>41,73%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>43,73%</t>
+          <t>37,56%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>49,43%</t>
+          <t>45,46%</t>
         </is>
       </c>
     </row>
@@ -3014,22 +3014,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>231</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>89223</t>
+          <t>165581</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>89223</t>
+          <t>165581</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>89223</t>
+          <t>165581</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3049,22 +3049,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>806</t>
+          <t>441</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>132312</t>
+          <t>256607</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>132312</t>
+          <t>256607</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>132312</t>
+          <t>256607</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3084,22 +3084,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>1361</t>
+          <t>672</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>221535</t>
+          <t>422188</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>221535</t>
+          <t>422188</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>221535</t>
+          <t>422188</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3131,107 +3131,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>837</t>
+          <t>460</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>137250</t>
+          <t>371994</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>128385</t>
+          <t>339238</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>146037</t>
+          <t>406549</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>18,96%</t>
+          <t>18,06%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>17,74%</t>
+          <t>16,47%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>20,17%</t>
+          <t>19,74%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>804</t>
+          <t>726</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>133760</t>
+          <t>434466</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>125013</t>
+          <t>406673</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>143100</t>
+          <t>465918</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>16,77%</t>
+          <t>19,71%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>15,67%</t>
+          <t>18,44%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>17,94%</t>
+          <t>21,13%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>1641</t>
+          <t>1186</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>271010</t>
+          <t>806459</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>257153</t>
+          <t>763079</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>283435</t>
+          <t>854122</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>17,81%</t>
+          <t>18,91%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>16,9%</t>
+          <t>17,89%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>18,63%</t>
+          <t>20,03%</t>
         </is>
       </c>
     </row>
@@ -3244,107 +3244,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>3241</t>
+          <t>1435</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>586622</t>
+          <t>1687479</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>577835</t>
+          <t>1652924</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>595487</t>
+          <t>1720235</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>81,04%</t>
+          <t>81,94%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>79,83%</t>
+          <t>80,26%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>82,26%</t>
+          <t>83,53%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>3671</t>
+          <t>2283</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>663796</t>
+          <t>1770324</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>654456</t>
+          <t>1738872</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>672543</t>
+          <t>1798117</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>83,23%</t>
+          <t>80,29%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>82,06%</t>
+          <t>78,87%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>84,33%</t>
+          <t>81,56%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>6912</t>
+          <t>3718</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>1250419</t>
+          <t>3457803</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>1237994</t>
+          <t>3410140</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>1264276</t>
+          <t>3501183</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>82,19%</t>
+          <t>81,09%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>81,37%</t>
+          <t>79,97%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>83,1%</t>
+          <t>82,11%</t>
         </is>
       </c>
     </row>
@@ -3357,22 +3357,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>4078</t>
+          <t>1895</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>723872</t>
+          <t>2059473</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>723872</t>
+          <t>2059473</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>723872</t>
+          <t>2059473</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3392,22 +3392,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>4475</t>
+          <t>3009</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>797556</t>
+          <t>2204790</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>797556</t>
+          <t>2204790</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>797556</t>
+          <t>2204790</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3427,22 +3427,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>8553</t>
+          <t>4904</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>1521429</t>
+          <t>4264262</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>1521429</t>
+          <t>4264262</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>1521429</t>
+          <t>4264262</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3532,7 +3532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la tensión arterial en Andalucia (tasa de respuesta: 99,88%)</t>
+          <t>Consumo de medicamentos para la tensión arterial en C.Valenciana (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3752,72 +3752,72 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1621</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>7411</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>0,88%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>4,02%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>1621</t>
-        </is>
-      </c>
-      <c r="S4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T4" s="2" t="inlineStr">
-        <is>
-          <t>7981</t>
-        </is>
-      </c>
-      <c r="U4" s="2" t="inlineStr">
-        <is>
-          <t>0,39%</t>
-        </is>
-      </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -3830,12 +3830,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>272</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>170171</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -3865,72 +3865,72 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>270</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>182732</t>
+          <t>170442</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>176942</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>99,12%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>95,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>340613</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
           <t>100,0%</t>
         </is>
       </c>
-      <c r="Q5" s="2" t="inlineStr">
-        <is>
-          <t>211</t>
-        </is>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>418968</t>
-        </is>
-      </c>
-      <c r="S5" s="2" t="inlineStr">
-        <is>
-          <t>412608</t>
-        </is>
-      </c>
-      <c r="T5" s="2" t="inlineStr">
-        <is>
-          <t>420589</t>
-        </is>
-      </c>
-      <c r="U5" s="2" t="inlineStr">
-        <is>
-          <t>99,61%</t>
-        </is>
-      </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>98,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -3943,22 +3943,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>272</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>170171</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>170171</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>170171</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -3978,22 +3978,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>270</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>170442</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>170442</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>170442</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -4013,22 +4013,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>542</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>340613</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>340613</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>340613</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -4065,7 +4065,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>899</t>
+          <t>720</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -4075,12 +4075,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5411</t>
+          <t>3723</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,39%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -4090,77 +4090,77 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2926</t>
+          <t>500</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>8376</t>
+          <t>2826</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,93%</t>
+          <t>0,24%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0,05%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>2,66%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>3825</t>
+          <t>1220</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>974</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>9929</t>
+          <t>4010</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>0,18%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>1,02%</t>
         </is>
       </c>
     </row>
@@ -4173,32 +4173,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>288</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>228469</t>
+          <t>181493</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>223957</t>
+          <t>178490</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>182213</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>99,61%</t>
+          <t>99,6%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>97,64%</t>
+          <t>97,96%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -4208,72 +4208,72 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>314</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>311502</t>
+          <t>210978</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>306052</t>
+          <t>208652</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>314283</t>
+          <t>211478</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>99,07%</t>
+          <t>99,76%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>97,34%</t>
+          <t>98,66%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>99,95%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>602</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>539971</t>
+          <t>392470</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>533867</t>
+          <t>389680</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>542822</t>
+          <t>393690</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>99,3%</t>
+          <t>99,69%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>98,17%</t>
+          <t>98,98%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>99,82%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -4286,22 +4286,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>289</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>182213</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>182213</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>182213</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -4321,22 +4321,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>315</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>211478</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>211478</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>211478</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -4356,22 +4356,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>604</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>393690</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>393690</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>393690</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -4403,107 +4403,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>15861</t>
+          <t>3580</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8790</t>
+          <t>1549</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>26245</t>
+          <t>7719</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,1%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,83%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>8,45%</t>
+          <t>3,11%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>8276</t>
+          <t>5211</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>4367</t>
+          <t>2133</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>13798</t>
+          <t>9810</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,57%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>1,35%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>4,28%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>15</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>24137</t>
+          <t>8791</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>15165</t>
+          <t>4991</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>34203</t>
+          <t>14197</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>3,81%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>5,4%</t>
+          <t>2,86%</t>
         </is>
       </c>
     </row>
@@ -4516,107 +4516,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>385</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>294908</t>
+          <t>244733</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>284524</t>
+          <t>240594</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>301979</t>
+          <t>246764</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>94,9%</t>
+          <t>98,56%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>91,55%</t>
+          <t>96,89%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>97,17%</t>
+          <t>99,38%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>479</t>
+          <t>398</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>314337</t>
+          <t>243440</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>308815</t>
+          <t>238841</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>318246</t>
+          <t>246518</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>97,43%</t>
+          <t>97,9%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>95,72%</t>
+          <t>96,05%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>98,65%</t>
+          <t>99,14%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>776</t>
+          <t>783</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>609244</t>
+          <t>488173</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>599178</t>
+          <t>482767</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>618216</t>
+          <t>491973</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>96,19%</t>
+          <t>98,23%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>94,6%</t>
+          <t>97,14%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>97,61%</t>
+          <t>99,0%</t>
         </is>
       </c>
     </row>
@@ -4629,22 +4629,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>392</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>310769</t>
+          <t>248313</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>310769</t>
+          <t>248313</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>310769</t>
+          <t>248313</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -4664,22 +4664,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>406</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>322613</t>
+          <t>248651</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>322613</t>
+          <t>248651</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>322613</t>
+          <t>248651</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -4699,22 +4699,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>806</t>
+          <t>798</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>633381</t>
+          <t>496964</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>633381</t>
+          <t>496964</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>633381</t>
+          <t>496964</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -4746,107 +4746,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>47668</t>
+          <t>31592</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>17563</t>
+          <t>23419</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>83699</t>
+          <t>41947</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,6%</t>
+          <t>10,64%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,8%</t>
+          <t>7,88%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>13,35%</t>
+          <t>14,12%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>53015</t>
+          <t>16247</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>42528</t>
+          <t>10774</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>73296</t>
+          <t>24072</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>13,1%</t>
+          <t>5,82%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>10,51%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>18,11%</t>
+          <t>8,63%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>81</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>100684</t>
+          <t>47839</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>47841</t>
+          <t>38328</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>139822</t>
+          <t>60241</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>9,76%</t>
+          <t>8,31%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>4,64%</t>
+          <t>6,65%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>13,55%</t>
+          <t>10,46%</t>
         </is>
       </c>
     </row>
@@ -4859,107 +4859,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>429</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>579496</t>
+          <t>265415</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>543465</t>
+          <t>255060</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>609601</t>
+          <t>273588</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>92,4%</t>
+          <t>89,36%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>86,65%</t>
+          <t>85,88%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>97,2%</t>
+          <t>92,12%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>577</t>
+          <t>432</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>351787</t>
+          <t>262728</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>331506</t>
+          <t>254903</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>362274</t>
+          <t>268201</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>86,9%</t>
+          <t>94,18%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>81,89%</t>
+          <t>91,37%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>89,49%</t>
+          <t>96,14%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>920</t>
+          <t>861</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>931282</t>
+          <t>528144</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>892144</t>
+          <t>515742</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>984125</t>
+          <t>537655</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>90,24%</t>
+          <t>91,69%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>86,45%</t>
+          <t>89,54%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>95,36%</t>
+          <t>93,35%</t>
         </is>
       </c>
     </row>
@@ -4972,22 +4972,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>485</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>627164</t>
+          <t>297007</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>627164</t>
+          <t>297007</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>627164</t>
+          <t>297007</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -5007,22 +5007,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>660</t>
+          <t>457</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>404802</t>
+          <t>278975</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>404802</t>
+          <t>278975</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>404802</t>
+          <t>278975</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -5042,22 +5042,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1050</t>
+          <t>942</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1031966</t>
+          <t>575983</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1031966</t>
+          <t>575983</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1031966</t>
+          <t>575983</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -5089,107 +5089,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>91</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>97624</t>
+          <t>55179</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>83768</t>
+          <t>44223</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>114630</t>
+          <t>66339</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>28,79%</t>
+          <t>23,51%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>24,7%</t>
+          <t>18,84%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>33,8%</t>
+          <t>28,27%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>84</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>77023</t>
+          <t>48838</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>65605</t>
+          <t>40538</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>88042</t>
+          <t>59715</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>24,15%</t>
+          <t>19,22%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>20,57%</t>
+          <t>15,95%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>27,61%</t>
+          <t>23,5%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>175</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>174647</t>
+          <t>104017</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>157363</t>
+          <t>89654</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>195911</t>
+          <t>119864</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>26,54%</t>
+          <t>21,28%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>23,91%</t>
+          <t>18,34%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>29,77%</t>
+          <t>24,52%</t>
         </is>
       </c>
     </row>
@@ -5202,107 +5202,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>279</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>241505</t>
+          <t>179521</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>224499</t>
+          <t>168361</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>255361</t>
+          <t>190477</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>71,21%</t>
+          <t>76,49%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>66,2%</t>
+          <t>71,73%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>75,3%</t>
+          <t>81,16%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>334</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>241871</t>
+          <t>205258</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>230852</t>
+          <t>194381</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>253289</t>
+          <t>213558</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>75,85%</t>
+          <t>80,78%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>72,39%</t>
+          <t>76,5%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>79,43%</t>
+          <t>84,05%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>706</t>
+          <t>613</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>483377</t>
+          <t>384779</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>462113</t>
+          <t>368932</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>500661</t>
+          <t>399142</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>73,46%</t>
+          <t>78,72%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>70,23%</t>
+          <t>75,48%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>76,09%</t>
+          <t>81,66%</t>
         </is>
       </c>
     </row>
@@ -5315,22 +5315,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>370</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>339129</t>
+          <t>234700</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>339129</t>
+          <t>234700</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>339129</t>
+          <t>234700</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -5350,22 +5350,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>418</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>318894</t>
+          <t>254096</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>318894</t>
+          <t>254096</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>318894</t>
+          <t>254096</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -5385,22 +5385,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>964</t>
+          <t>788</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>658024</t>
+          <t>488796</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>658024</t>
+          <t>488796</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>658024</t>
+          <t>488796</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -5432,107 +5432,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>253</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>98554</t>
+          <t>79274</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>86525</t>
+          <t>70844</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>109823</t>
+          <t>86966</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>47,56%</t>
+          <t>43,07%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>41,76%</t>
+          <t>38,49%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>53,0%</t>
+          <t>47,25%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>184</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>313456</t>
+          <t>68858</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>193359</t>
+          <t>60948</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>414846</t>
+          <t>77237</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>69,25%</t>
+          <t>36,5%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>42,72%</t>
+          <t>32,3%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>91,65%</t>
+          <t>40,94%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>437</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>412010</t>
+          <t>148132</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>291641</t>
+          <t>137503</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>561683</t>
+          <t>160955</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>62,44%</t>
+          <t>39,74%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>44,2%</t>
+          <t>36,89%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>85,12%</t>
+          <t>43,18%</t>
         </is>
       </c>
     </row>
@@ -5545,107 +5545,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>317</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>108647</t>
+          <t>104774</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>97378</t>
+          <t>97082</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>120676</t>
+          <t>113204</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>52,44%</t>
+          <t>56,93%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>47,0%</t>
+          <t>52,75%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>58,24%</t>
+          <t>61,51%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>302</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>139186</t>
+          <t>119816</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>37796</t>
+          <t>111437</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>259283</t>
+          <t>127726</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>30,75%</t>
+          <t>63,5%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>8,35%</t>
+          <t>59,06%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>57,28%</t>
+          <t>67,7%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>619</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>247833</t>
+          <t>224591</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>98160</t>
+          <t>211768</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>368202</t>
+          <t>235220</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>37,56%</t>
+          <t>60,26%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>14,88%</t>
+          <t>56,82%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>55,8%</t>
+          <t>63,11%</t>
         </is>
       </c>
     </row>
@@ -5658,22 +5658,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>570</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>207201</t>
+          <t>184048</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>207201</t>
+          <t>184048</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>207201</t>
+          <t>184048</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -5693,22 +5693,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>486</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>452642</t>
+          <t>188674</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>452642</t>
+          <t>188674</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>452642</t>
+          <t>188674</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -5728,22 +5728,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>798</t>
+          <t>1056</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>659843</t>
+          <t>372723</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>659843</t>
+          <t>372723</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>659843</t>
+          <t>372723</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -5775,107 +5775,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>222</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>84447</t>
+          <t>66276</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>74301</t>
+          <t>59194</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>93614</t>
+          <t>72697</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>55,64%</t>
+          <t>45,23%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>48,95%</t>
+          <t>40,4%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>61,68%</t>
+          <t>49,61%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>306</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>139994</t>
+          <t>121638</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>129258</t>
+          <t>112082</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>149793</t>
+          <t>130779</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>59,93%</t>
+          <t>57,42%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>55,33%</t>
+          <t>52,91%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>64,12%</t>
+          <t>61,74%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>528</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>224441</t>
+          <t>187913</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>209945</t>
+          <t>176057</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>239899</t>
+          <t>198747</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>58,24%</t>
+          <t>52,44%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>54,48%</t>
+          <t>49,13%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>62,25%</t>
+          <t>55,46%</t>
         </is>
       </c>
     </row>
@@ -5888,107 +5888,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>259</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>67328</t>
+          <t>80257</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>58161</t>
+          <t>73836</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>77474</t>
+          <t>87339</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>44,36%</t>
+          <t>54,77%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>38,32%</t>
+          <t>50,39%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>51,05%</t>
+          <t>59,6%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>222</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>93610</t>
+          <t>90182</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>83811</t>
+          <t>81041</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>104346</t>
+          <t>99738</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>40,07%</t>
+          <t>42,58%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>35,88%</t>
+          <t>38,26%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>44,67%</t>
+          <t>47,09%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>481</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>160938</t>
+          <t>170440</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>145480</t>
+          <t>159606</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>175434</t>
+          <t>182296</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>41,76%</t>
+          <t>47,56%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>37,75%</t>
+          <t>44,54%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>45,52%</t>
+          <t>50,87%</t>
         </is>
       </c>
     </row>
@@ -6001,22 +6001,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>481</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>151775</t>
+          <t>146533</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>151775</t>
+          <t>146533</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>151775</t>
+          <t>146533</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -6036,22 +6036,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>528</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>233604</t>
+          <t>211820</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>233604</t>
+          <t>211820</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>233604</t>
+          <t>211820</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -6071,22 +6071,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>1009</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>385379</t>
+          <t>358353</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>385379</t>
+          <t>358353</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>385379</t>
+          <t>358353</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -6118,107 +6118,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>630</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>345052</t>
+          <t>236621</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>219925</t>
+          <t>217511</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>403647</t>
+          <t>256848</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>16,42%</t>
+          <t>16,17%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>10,46%</t>
+          <t>14,87%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>19,21%</t>
+          <t>17,56%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>726</t>
+          <t>608</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>596311</t>
+          <t>261292</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>416876</t>
+          <t>241630</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>1119986</t>
+          <t>281883</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>26,72%</t>
+          <t>16,71%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>18,68%</t>
+          <t>15,45%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>50,19%</t>
+          <t>18,02%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>1186</t>
+          <t>1238</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>941364</t>
+          <t>497913</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>737189</t>
+          <t>470433</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>1441057</t>
+          <t>525097</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>21,73%</t>
+          <t>16,45%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>17,01%</t>
+          <t>15,54%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>33,26%</t>
+          <t>17,35%</t>
         </is>
       </c>
     </row>
@@ -6231,107 +6231,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>1435</t>
+          <t>2229</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>1756589</t>
+          <t>1226365</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>1697994</t>
+          <t>1206138</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>1881716</t>
+          <t>1245475</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>83,58%</t>
+          <t>83,83%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>80,79%</t>
+          <t>82,44%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>89,54%</t>
+          <t>85,13%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>2283</t>
+          <t>2272</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>1635025</t>
+          <t>1302845</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>1111350</t>
+          <t>1282254</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>1814460</t>
+          <t>1322507</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>73,28%</t>
+          <t>83,29%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>49,81%</t>
+          <t>81,98%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>81,32%</t>
+          <t>84,55%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>3718</t>
+          <t>4501</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>3391613</t>
+          <t>2529209</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>2891920</t>
+          <t>2502025</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>3595788</t>
+          <t>2556689</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>78,27%</t>
+          <t>83,55%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>66,74%</t>
+          <t>82,65%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>82,99%</t>
+          <t>84,46%</t>
         </is>
       </c>
     </row>
@@ -6344,22 +6344,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>1895</t>
+          <t>2859</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>2101641</t>
+          <t>1462986</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>2101641</t>
+          <t>1462986</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>2101641</t>
+          <t>1462986</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -6379,22 +6379,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>3009</t>
+          <t>2880</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>2231336</t>
+          <t>1564137</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>2231336</t>
+          <t>1564137</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>2231336</t>
+          <t>1564137</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -6414,22 +6414,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>4904</t>
+          <t>5739</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>4332977</t>
+          <t>3027122</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>4332977</t>
+          <t>3027122</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>4332977</t>
+          <t>3027122</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -6519,7 +6519,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la tensión arterial en C.Valenciana (tasa de respuesta: 99,74%)</t>
+          <t>Consumo de medicamentos para la tensión arterial en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6704,107 +6704,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>469</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1553</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0,61%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2,02%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="M4" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="N4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="O4" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
+      <c r="P4" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>469</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>1646</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>0,33%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="T4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="U4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="V4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,15%</t>
         </is>
       </c>
     </row>
@@ -6817,107 +6817,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>374</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>170171</t>
+          <t>76412</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
+          <t>75328</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>76881</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>99,39%</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>97,98%</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>348</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>66242</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="M5" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="N5" s="2" t="inlineStr">
         <is>
           <t>100,0%</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
+      <c r="O5" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I5" s="2" t="inlineStr">
+      <c r="P5" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>270</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>170442</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>722</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>142654</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>141477</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>143123</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>99,67%</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>98,85%</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
         <is>
           <t>100,0%</t>
-        </is>
-      </c>
-      <c r="O5" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="Q5" s="2" t="inlineStr">
-        <is>
-          <t>542</t>
-        </is>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>340613</t>
-        </is>
-      </c>
-      <c r="S5" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="T5" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="U5" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
-      <c r="V5" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="W5" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
         </is>
       </c>
     </row>
@@ -6930,22 +6930,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>376</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>170171</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>170171</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>170171</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -6965,22 +6965,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>348</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>170442</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>170442</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>170442</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -7000,22 +7000,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>542</t>
+          <t>724</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>340613</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>340613</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>340613</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -7052,7 +7052,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>720</t>
+          <t>116</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -7062,12 +7062,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3723</t>
+          <t>597</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -7077,77 +7077,77 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,04%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>2826</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>0,24%</t>
-        </is>
-      </c>
-      <c r="O7" s="2" t="inlineStr">
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>684</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>0,08%</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="P7" s="2" t="inlineStr">
-        <is>
-          <t>1,34%</t>
-        </is>
-      </c>
-      <c r="Q7" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>1220</t>
-        </is>
-      </c>
-      <c r="S7" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T7" s="2" t="inlineStr">
-        <is>
-          <t>4010</t>
-        </is>
-      </c>
-      <c r="U7" s="2" t="inlineStr">
-        <is>
-          <t>0,31%</t>
-        </is>
-      </c>
-      <c r="V7" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>1,02%</t>
+          <t>0,48%</t>
         </is>
       </c>
     </row>
@@ -7160,32 +7160,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>396</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>181493</t>
+          <t>74867</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>178490</t>
+          <t>74386</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>182213</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>99,6%</t>
+          <t>99,85%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>97,96%</t>
+          <t>99,2%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -7195,67 +7195,67 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>367</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>210978</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>208652</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>211478</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>99,76%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>98,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>602</t>
+          <t>763</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>392470</t>
+          <t>142915</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>389680</t>
+          <t>142347</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>393690</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>99,69%</t>
+          <t>99,92%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>98,98%</t>
+          <t>99,52%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
@@ -7273,22 +7273,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>397</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>182213</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>182213</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>182213</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -7308,22 +7308,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>367</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>211478</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>211478</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>211478</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -7343,22 +7343,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>604</t>
+          <t>764</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>393690</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>393690</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>393690</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -7390,72 +7390,72 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3580</t>
+          <t>1463</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1549</t>
+          <t>724</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7719</t>
+          <t>2981</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5211</t>
+          <t>1070</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2133</t>
+          <t>422</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>9810</t>
+          <t>2233</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -7465,32 +7465,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>8791</t>
+          <t>2533</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>4991</t>
+          <t>1476</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>14197</t>
+          <t>4299</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>0,69%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>2,86%</t>
+          <t>2,0%</t>
         </is>
       </c>
     </row>
@@ -7503,107 +7503,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>559</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>244733</t>
+          <t>102497</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>240594</t>
+          <t>100979</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>246764</t>
+          <t>103236</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>98,56%</t>
+          <t>98,59%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>96,89%</t>
+          <t>97,13%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,38%</t>
+          <t>99,3%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>574</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>243440</t>
+          <t>109645</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>238841</t>
+          <t>108482</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>246518</t>
+          <t>110293</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>97,9%</t>
+          <t>99,03%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>96,05%</t>
+          <t>97,98%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>99,14%</t>
+          <t>99,62%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>783</t>
+          <t>1133</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>488173</t>
+          <t>212142</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>482767</t>
+          <t>210376</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>491973</t>
+          <t>213199</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>98,23%</t>
+          <t>98,82%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>97,14%</t>
+          <t>98,0%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>99,0%</t>
+          <t>99,31%</t>
         </is>
       </c>
     </row>
@@ -7616,22 +7616,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>568</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>248313</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>248313</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>248313</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -7651,22 +7651,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>580</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>248651</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>248651</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>248651</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -7686,22 +7686,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>798</t>
+          <t>1148</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>496964</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>496964</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>496964</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -7733,107 +7733,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>31592</t>
+          <t>11160</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>23419</t>
+          <t>8691</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>41947</t>
+          <t>14239</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>10,64%</t>
+          <t>7,71%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,88%</t>
+          <t>6,0%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>14,12%</t>
+          <t>9,83%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>49</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>16247</t>
+          <t>9339</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>10774</t>
+          <t>6840</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>24072</t>
+          <t>12467</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,82%</t>
+          <t>6,12%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>3,86%</t>
+          <t>4,48%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>8,63%</t>
+          <t>8,17%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>119</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>47839</t>
+          <t>20500</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>38328</t>
+          <t>16834</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>60241</t>
+          <t>24641</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>8,31%</t>
+          <t>6,89%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>6,65%</t>
+          <t>5,66%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>10,46%</t>
+          <t>8,29%</t>
         </is>
       </c>
     </row>
@@ -7846,107 +7846,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>429</t>
+          <t>733</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>265415</t>
+          <t>133618</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>255060</t>
+          <t>130539</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>273588</t>
+          <t>136087</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>89,36%</t>
+          <t>92,29%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>85,88%</t>
+          <t>90,17%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>92,12%</t>
+          <t>94,0%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>763</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>262728</t>
+          <t>143205</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>254903</t>
+          <t>140077</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>268201</t>
+          <t>145704</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>94,18%</t>
+          <t>93,88%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>91,37%</t>
+          <t>91,83%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>96,14%</t>
+          <t>95,52%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>861</t>
+          <t>1496</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>528144</t>
+          <t>276821</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>515742</t>
+          <t>272680</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>537655</t>
+          <t>280487</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>91,69%</t>
+          <t>93,11%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>89,54%</t>
+          <t>91,71%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>93,35%</t>
+          <t>94,34%</t>
         </is>
       </c>
     </row>
@@ -7959,22 +7959,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>485</t>
+          <t>803</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>297007</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>297007</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>297007</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -7994,22 +7994,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>812</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>278975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>278975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>278975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -8029,22 +8029,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>942</t>
+          <t>1615</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>575983</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>575983</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>575983</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -8076,107 +8076,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>193</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>55179</t>
+          <t>32522</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>44223</t>
+          <t>28098</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>66339</t>
+          <t>37182</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>23,51%</t>
+          <t>25,1%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>18,84%</t>
+          <t>21,68%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>28,27%</t>
+          <t>28,69%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>120</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>48838</t>
+          <t>21093</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>40538</t>
+          <t>17644</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>59715</t>
+          <t>25527</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>19,22%</t>
+          <t>13,88%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>15,95%</t>
+          <t>11,61%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>23,5%</t>
+          <t>16,8%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>313</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>104017</t>
+          <t>53615</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>89654</t>
+          <t>48352</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>119864</t>
+          <t>59576</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>21,28%</t>
+          <t>19,05%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>18,34%</t>
+          <t>17,18%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>24,52%</t>
+          <t>21,16%</t>
         </is>
       </c>
     </row>
@@ -8189,107 +8189,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>540</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>179521</t>
+          <t>97060</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>168361</t>
+          <t>92400</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>190477</t>
+          <t>101484</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>76,49%</t>
+          <t>74,9%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>71,73%</t>
+          <t>71,31%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>81,16%</t>
+          <t>78,32%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>739</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>205258</t>
+          <t>130822</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>194381</t>
+          <t>126388</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>213558</t>
+          <t>134271</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>80,78%</t>
+          <t>86,12%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>76,5%</t>
+          <t>83,2%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>84,05%</t>
+          <t>88,39%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>1279</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>384779</t>
+          <t>227883</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>368932</t>
+          <t>221922</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>399142</t>
+          <t>233146</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>78,72%</t>
+          <t>80,95%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>75,48%</t>
+          <t>78,84%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>81,66%</t>
+          <t>82,82%</t>
         </is>
       </c>
     </row>
@@ -8302,22 +8302,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>733</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>234700</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>234700</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>234700</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -8337,22 +8337,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>859</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>254096</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>254096</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>254096</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -8372,22 +8372,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>788</t>
+          <t>1592</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>488796</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>488796</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>488796</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -8419,107 +8419,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>248</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>79274</t>
+          <t>41036</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>70844</t>
+          <t>37133</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>86966</t>
+          <t>45827</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>43,07%</t>
+          <t>39,28%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>38,49%</t>
+          <t>35,55%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>47,25%</t>
+          <t>43,87%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>215</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>68858</t>
+          <t>34628</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>60948</t>
+          <t>30353</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>77237</t>
+          <t>38981</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>36,5%</t>
+          <t>29,91%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>32,3%</t>
+          <t>26,22%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>40,94%</t>
+          <t>33,67%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>463</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>148132</t>
+          <t>75664</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>137503</t>
+          <t>69547</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>160955</t>
+          <t>81295</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>39,74%</t>
+          <t>34,35%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>36,89%</t>
+          <t>31,58%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>43,18%</t>
+          <t>36,91%</t>
         </is>
       </c>
     </row>
@@ -8532,107 +8532,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>398</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>104774</t>
+          <t>63430</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>97082</t>
+          <t>58639</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>113204</t>
+          <t>67333</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>56,93%</t>
+          <t>60,72%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>52,75%</t>
+          <t>56,13%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>61,51%</t>
+          <t>64,45%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>488</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>119816</t>
+          <t>81152</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>111437</t>
+          <t>76799</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>127726</t>
+          <t>85427</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>63,5%</t>
+          <t>70,09%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>59,06%</t>
+          <t>66,33%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>67,7%</t>
+          <t>73,78%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>619</t>
+          <t>886</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>224591</t>
+          <t>144582</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>211768</t>
+          <t>138951</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>235220</t>
+          <t>150699</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>60,26%</t>
+          <t>65,65%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>56,82%</t>
+          <t>63,09%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>63,11%</t>
+          <t>68,42%</t>
         </is>
       </c>
     </row>
@@ -8645,22 +8645,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>646</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>184048</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>184048</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>184048</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -8680,22 +8680,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>486</t>
+          <t>703</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>188674</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>188674</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>188674</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -8715,22 +8715,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>1056</t>
+          <t>1349</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>372723</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>372723</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>372723</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -8762,107 +8762,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>314</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>66276</t>
+          <t>50484</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>59194</t>
+          <t>46624</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>72697</t>
+          <t>54363</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>45,23%</t>
+          <t>56,58%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>40,4%</t>
+          <t>52,26%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>49,61%</t>
+          <t>60,93%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>414</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>121638</t>
+          <t>67629</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>112082</t>
+          <t>62607</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>130779</t>
+          <t>72577</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>57,42%</t>
+          <t>51,11%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>52,91%</t>
+          <t>47,32%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>61,74%</t>
+          <t>54,85%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>728</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>187913</t>
+          <t>118114</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>176057</t>
+          <t>112032</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>198747</t>
+          <t>124665</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>52,44%</t>
+          <t>53,32%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>49,13%</t>
+          <t>50,57%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>55,46%</t>
+          <t>56,27%</t>
         </is>
       </c>
     </row>
@@ -8875,107 +8875,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>241</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>80257</t>
+          <t>38739</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>73836</t>
+          <t>34860</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>87339</t>
+          <t>42599</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>54,77%</t>
+          <t>43,42%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>50,39%</t>
+          <t>39,07%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>59,6%</t>
+          <t>47,74%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>392</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>90182</t>
+          <t>64683</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>81041</t>
+          <t>59735</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>99738</t>
+          <t>69705</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>42,58%</t>
+          <t>48,89%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>38,26%</t>
+          <t>45,15%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>47,09%</t>
+          <t>52,68%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>481</t>
+          <t>633</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>170440</t>
+          <t>103421</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>159606</t>
+          <t>96870</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>182296</t>
+          <t>109503</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>47,56%</t>
+          <t>46,68%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>44,54%</t>
+          <t>43,73%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>50,87%</t>
+          <t>49,43%</t>
         </is>
       </c>
     </row>
@@ -8988,22 +8988,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>481</t>
+          <t>555</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>146533</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>146533</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>146533</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -9023,22 +9023,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>806</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>211820</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>211820</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>211820</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -9058,22 +9058,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>1009</t>
+          <t>1361</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>358353</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>358353</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>358353</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -9105,107 +9105,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>630</t>
+          <t>837</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>236621</t>
+          <t>137250</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>217511</t>
+          <t>128385</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>256848</t>
+          <t>146037</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>16,17%</t>
+          <t>18,96%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>14,87%</t>
+          <t>17,74%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>17,56%</t>
+          <t>20,17%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>804</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>261292</t>
+          <t>133760</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>241630</t>
+          <t>125013</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>281883</t>
+          <t>143100</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>16,71%</t>
+          <t>16,77%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>15,45%</t>
+          <t>15,67%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>18,02%</t>
+          <t>17,94%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>1238</t>
+          <t>1641</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>497913</t>
+          <t>271010</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>470433</t>
+          <t>257153</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>525097</t>
+          <t>283435</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>16,45%</t>
+          <t>17,81%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>15,54%</t>
+          <t>16,9%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>17,35%</t>
+          <t>18,63%</t>
         </is>
       </c>
     </row>
@@ -9218,107 +9218,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>2229</t>
+          <t>3241</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>1226365</t>
+          <t>586622</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>1206138</t>
+          <t>577835</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>1245475</t>
+          <t>595487</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>83,83%</t>
+          <t>81,04%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>82,44%</t>
+          <t>79,83%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>85,13%</t>
+          <t>82,26%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>2272</t>
+          <t>3671</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>1302845</t>
+          <t>663796</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>1282254</t>
+          <t>654456</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>1322507</t>
+          <t>672543</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>83,29%</t>
+          <t>83,23%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>81,98%</t>
+          <t>82,06%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>84,55%</t>
+          <t>84,33%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>4501</t>
+          <t>6912</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>2529209</t>
+          <t>1250419</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>2502025</t>
+          <t>1237994</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>2556689</t>
+          <t>1264276</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>83,55%</t>
+          <t>82,19%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>82,65%</t>
+          <t>81,37%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>84,46%</t>
+          <t>83,1%</t>
         </is>
       </c>
     </row>
@@ -9331,22 +9331,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>2859</t>
+          <t>4078</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>1462986</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>1462986</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>1462986</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -9366,22 +9366,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>2880</t>
+          <t>4475</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>1564137</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>1564137</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>1564137</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -9401,22 +9401,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>5739</t>
+          <t>8553</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>3027122</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>3027122</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>3027122</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
